--- a/LocalData/circle.xlsx
+++ b/LocalData/circle.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="circle" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="生成" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,7 +612,7 @@
         <v>1024</v>
       </c>
       <c r="F5" s="1">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="G5" s="1">
         <v>25</v>
@@ -637,10 +637,10 @@
         <v>588.5</v>
       </c>
       <c r="E6" s="1">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F6" s="1">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="G6" s="1">
         <v>20</v>
@@ -665,10 +665,10 @@
         <v>634.29999999999995</v>
       </c>
       <c r="E7" s="1">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="F7" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G7" s="1">
         <v>20</v>
@@ -693,7 +693,7 @@
         <v>614.1</v>
       </c>
       <c r="E8" s="1">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="F8" s="1">
         <v>300</v>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,25 +868,25 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="str">
         <f>CONCATENATE(B12,C12,D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12)</f>
-        <v>{120,37900,43000,1024,750,25,1},</v>
+        <v>{120,37900,43000,1024,650,25,1},</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A8" si="0">CONCATENATE(B13,C13,D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
-        <v>{90,44610,58850,750,600,20,1},</v>
+        <v>{90,44610,58850,650,550,20,1},</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>{90,55490,63430,600,500,20,2},</v>
+        <v>{90,55490,63430,550,450,20,2},</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>{60,58880,61410,500,300,15,2},</v>
+        <v>{60,58880,61410,450,300,15,2},</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -953,7 +953,7 @@
       </c>
       <c r="K12">
         <f>circle!F5</f>
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="I13">
         <f>circle!E6</f>
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13">
         <f>circle!F6</f>
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -1054,14 +1054,14 @@
       </c>
       <c r="I14">
         <f>circle!E7</f>
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="K14">
         <f>circle!F7</f>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="I15">
         <f>circle!E8</f>
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>

--- a/LocalData/circle.xlsx
+++ b/LocalData/circle.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="circle" sheetId="1" r:id="rId1"/>
+    <sheet name="Tab_Circle" sheetId="1" r:id="rId1"/>
     <sheet name="生成" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>N秒开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +102,14 @@
   </si>
   <si>
     <t>},</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -507,28 +511,28 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -567,28 +571,28 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -859,7 +863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -921,488 +925,488 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <f>circle!B5</f>
+        <f>Tab_Circle!B5</f>
         <v>120</v>
       </c>
       <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <f>Tab_Circle!C5*100</f>
+        <v>37900</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <f>Tab_Circle!D5*100</f>
+        <v>43000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <f>Tab_Circle!E5</f>
+        <v>1024</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <f>Tab_Circle!F5</f>
+        <v>650</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12">
+        <f>Tab_Circle!G5</f>
+        <v>25</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <f>Tab_Circle!H5</f>
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
         <v>19</v>
-      </c>
-      <c r="E12">
-        <f>circle!C5*100</f>
-        <v>37900</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12">
-        <f>circle!D5*100</f>
-        <v>43000</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <f>circle!E5</f>
-        <v>1024</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12">
-        <f>circle!F5</f>
-        <v>650</v>
-      </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12">
-        <f>circle!G5</f>
-        <v>25</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12">
-        <f>circle!H5</f>
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <f>circle!B6</f>
+        <f>Tab_Circle!B6</f>
         <v>90</v>
       </c>
       <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <f>Tab_Circle!C6*100</f>
+        <v>44610</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <f>Tab_Circle!D6*100</f>
+        <v>58850</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <f>Tab_Circle!E6</f>
+        <v>650</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13">
+        <f>Tab_Circle!F6</f>
+        <v>550</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <f>Tab_Circle!G6</f>
+        <v>20</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13">
+        <f>Tab_Circle!H6</f>
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
         <v>19</v>
-      </c>
-      <c r="E13">
-        <f>circle!C6*100</f>
-        <v>44610</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <f>circle!D6*100</f>
-        <v>58850</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13">
-        <f>circle!E6</f>
-        <v>650</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13">
-        <f>circle!F6</f>
-        <v>550</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13">
-        <f>circle!G6</f>
-        <v>20</v>
-      </c>
-      <c r="N13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13">
-        <f>circle!H6</f>
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <f>circle!B7</f>
+        <f>Tab_Circle!B7</f>
         <v>90</v>
       </c>
       <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <f>Tab_Circle!C7*100</f>
+        <v>55490</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <f>Tab_Circle!D7*100</f>
+        <v>63429.999999999993</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <f>Tab_Circle!E7</f>
+        <v>550</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <f>Tab_Circle!F7</f>
+        <v>450</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <f>Tab_Circle!G7</f>
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14">
+        <f>Tab_Circle!H7</f>
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
         <v>19</v>
-      </c>
-      <c r="E14">
-        <f>circle!C7*100</f>
-        <v>55490</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14">
-        <f>circle!D7*100</f>
-        <v>63429.999999999993</v>
-      </c>
-      <c r="H14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14">
-        <f>circle!E7</f>
-        <v>550</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14">
-        <f>circle!F7</f>
-        <v>450</v>
-      </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14">
-        <f>circle!G7</f>
-        <v>20</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14">
-        <f>circle!H7</f>
-        <v>2</v>
-      </c>
-      <c r="P14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <f>circle!B8</f>
+        <f>Tab_Circle!B8</f>
         <v>60</v>
       </c>
       <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <f>Tab_Circle!C8*100</f>
+        <v>58879.999999999993</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <f>Tab_Circle!D8*100</f>
+        <v>61410</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <f>Tab_Circle!E8</f>
+        <v>450</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15">
+        <f>Tab_Circle!F8</f>
+        <v>300</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <f>Tab_Circle!G8</f>
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15">
+        <f>Tab_Circle!H8</f>
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
         <v>19</v>
-      </c>
-      <c r="E15">
-        <f>circle!C8*100</f>
-        <v>58879.999999999993</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <f>circle!D8*100</f>
-        <v>61410</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15">
-        <f>circle!E8</f>
-        <v>450</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15">
-        <f>circle!F8</f>
-        <v>300</v>
-      </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15">
-        <f>circle!G8</f>
-        <v>15</v>
-      </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15">
-        <f>circle!H8</f>
-        <v>2</v>
-      </c>
-      <c r="P15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <f>circle!B9</f>
+        <f>Tab_Circle!B9</f>
         <v>60</v>
       </c>
       <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <f>Tab_Circle!C9*100</f>
+        <v>66190</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <f>Tab_Circle!D9*100</f>
+        <v>57029.999999999993</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <f>Tab_Circle!E9</f>
+        <v>300</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16">
+        <f>Tab_Circle!F9</f>
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16">
+        <f>Tab_Circle!G9</f>
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16">
+        <f>Tab_Circle!H9</f>
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
         <v>19</v>
-      </c>
-      <c r="E16">
-        <f>circle!C9*100</f>
-        <v>66190</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16">
-        <f>circle!D9*100</f>
-        <v>57029.999999999993</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16">
-        <f>circle!E9</f>
-        <v>300</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16">
-        <f>circle!F9</f>
-        <v>100</v>
-      </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16">
-        <f>circle!G9</f>
-        <v>15</v>
-      </c>
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <f>circle!H9</f>
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <f>circle!B10</f>
+        <f>Tab_Circle!B10</f>
         <v>30</v>
       </c>
       <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <f>Tab_Circle!C10*100</f>
+        <v>68930</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <f>Tab_Circle!D10*100</f>
+        <v>69420</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <f>Tab_Circle!E10</f>
+        <v>100</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <f>Tab_Circle!F10</f>
+        <v>80</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17">
+        <f>Tab_Circle!G10</f>
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17">
+        <f>Tab_Circle!H10</f>
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
         <v>19</v>
-      </c>
-      <c r="E17">
-        <f>circle!C10*100</f>
-        <v>68930</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17">
-        <f>circle!D10*100</f>
-        <v>69420</v>
-      </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17">
-        <f>circle!E10</f>
-        <v>100</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17">
-        <f>circle!F10</f>
-        <v>80</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17">
-        <f>circle!G10</f>
-        <v>10</v>
-      </c>
-      <c r="N17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17">
-        <f>circle!H10</f>
-        <v>4</v>
-      </c>
-      <c r="P17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <f>circle!B11</f>
+        <f>Tab_Circle!B11</f>
         <v>30</v>
       </c>
       <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <f>Tab_Circle!C11*100</f>
+        <v>72360</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <f>Tab_Circle!D11*100</f>
+        <v>64510</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <f>Tab_Circle!E11</f>
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18">
+        <f>Tab_Circle!F11</f>
+        <v>50</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <f>Tab_Circle!G11</f>
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <f>Tab_Circle!H11</f>
+        <v>8</v>
+      </c>
+      <c r="P18" t="s">
         <v>19</v>
-      </c>
-      <c r="E18">
-        <f>circle!C11*100</f>
-        <v>72360</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18">
-        <f>circle!D11*100</f>
-        <v>64510</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18">
-        <f>circle!E11</f>
-        <v>80</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18">
-        <f>circle!F11</f>
-        <v>50</v>
-      </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18">
-        <f>circle!G11</f>
-        <v>10</v>
-      </c>
-      <c r="N18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18">
-        <f>circle!H11</f>
-        <v>8</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <f>circle!B12</f>
+        <f>Tab_Circle!B12</f>
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19">
-        <f>circle!C12*100</f>
+        <f>Tab_Circle!C12*100</f>
         <v>77020</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19">
-        <f>circle!D12*100</f>
+        <f>Tab_Circle!D12*100</f>
         <v>72300</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19">
-        <f>circle!E12</f>
+        <f>Tab_Circle!E12</f>
         <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19">
-        <f>circle!F12</f>
+        <f>Tab_Circle!F12</f>
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <f>circle!G12</f>
+        <f>Tab_Circle!G12</f>
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O19">
-        <f>circle!H12</f>
+        <f>Tab_Circle!H12</f>
         <v>10</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <f>circle!B13</f>
+        <f>Tab_Circle!B13</f>
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20">
-        <f>circle!C13*100</f>
+        <f>Tab_Circle!C13*100</f>
         <v>77020</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <f>circle!D13*100</f>
+        <f>Tab_Circle!D13*100</f>
         <v>72300</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20">
-        <f>circle!E13</f>
+        <f>Tab_Circle!E13</f>
         <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20">
-        <f>circle!F13</f>
+        <f>Tab_Circle!F13</f>
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <f>circle!G13</f>
+        <f>Tab_Circle!G13</f>
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O20">
-        <f>circle!H13</f>
+        <f>Tab_Circle!H13</f>
         <v>20</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/LocalData/circle.xlsx
+++ b/LocalData/circle.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -613,10 +613,10 @@
         <v>430</v>
       </c>
       <c r="E5" s="1">
-        <v>1024</v>
+        <v>700</v>
       </c>
       <c r="F5" s="1">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="G5" s="1">
         <v>25</v>
@@ -641,10 +641,10 @@
         <v>588.5</v>
       </c>
       <c r="E6" s="1">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F6" s="1">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="G6" s="1">
         <v>20</v>
@@ -669,10 +669,10 @@
         <v>634.29999999999995</v>
       </c>
       <c r="E7" s="1">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="F7" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="G7" s="1">
         <v>20</v>
@@ -697,10 +697,10 @@
         <v>614.1</v>
       </c>
       <c r="E8" s="1">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="F8" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1">
         <v>15</v>
@@ -725,10 +725,10 @@
         <v>570.29999999999995</v>
       </c>
       <c r="E9" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1">
         <v>15</v>
@@ -753,10 +753,10 @@
         <v>694.2</v>
       </c>
       <c r="E10" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
         <v>10</v>
@@ -781,10 +781,10 @@
         <v>645.1</v>
       </c>
       <c r="E11" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -809,10 +809,10 @@
         <v>723</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
         <v>5</v>
@@ -837,7 +837,7 @@
         <v>723</v>
       </c>
       <c r="E13" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -872,55 +872,55 @@
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="str">
         <f>CONCATENATE(B12,C12,D12,E12,F12,G12,H12,I12,J12,K12,L12,M12,N12,O12,P12)</f>
-        <v>{120,37900,43000,1024,650,25,1},</v>
+        <v>{120,37900,43000,700,550,25,1},</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f t="shared" ref="A2:A8" si="0">CONCATENATE(B13,C13,D13,E13,F13,G13,H13,I13,J13,K13,L13,M13,N13,O13,P13)</f>
-        <v>{90,44610,58850,650,550,20,1},</v>
+        <v>{90,44610,58850,550,450,20,1},</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>{90,55490,63430,550,450,20,2},</v>
+        <v>{90,55490,63430,450,300,20,2},</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>{60,58880,61410,450,300,15,2},</v>
+        <v>{60,58880,61410,300,100,15,2},</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>{60,66190,57030,300,100,15,4},</v>
+        <v>{60,66190,57030,100,80,15,4},</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>{30,68930,69420,100,80,10,4},</v>
+        <v>{30,68930,69420,80,50,10,4},</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>{30,72360,64510,80,50,10,8},</v>
+        <v>{30,72360,64510,50,20,10,8},</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>{20,77020,72300,50,20,5,10},</v>
+        <v>{20,77020,72300,20,10,5,10},</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" t="str">
         <f>CONCATENATE(B20,C20,D20,E20,F20,G20,H20,I20,J20,K20,L20,M20,N20,O20,P20)</f>
-        <v>{10,77020,72300,20,0,5,20}</v>
+        <v>{10,77020,72300,10,0,5,20}</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -950,14 +950,14 @@
       </c>
       <c r="I12">
         <f>Tab_Circle!E5</f>
-        <v>1024</v>
+        <v>700</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
       <c r="K12">
         <f>Tab_Circle!F5</f>
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -1004,14 +1004,14 @@
       </c>
       <c r="I13">
         <f>Tab_Circle!E6</f>
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13">
         <f>Tab_Circle!F6</f>
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -1058,14 +1058,14 @@
       </c>
       <c r="I14">
         <f>Tab_Circle!E7</f>
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
       <c r="K14">
         <f>Tab_Circle!F7</f>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1112,14 +1112,14 @@
       </c>
       <c r="I15">
         <f>Tab_Circle!E8</f>
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
       </c>
       <c r="K15">
         <f>Tab_Circle!F8</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -1166,14 +1166,14 @@
       </c>
       <c r="I16">
         <f>Tab_Circle!E9</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
         <v>18</v>
       </c>
       <c r="K16">
         <f>Tab_Circle!F9</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -1220,14 +1220,14 @@
       </c>
       <c r="I17">
         <f>Tab_Circle!E10</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
       </c>
       <c r="K17">
         <f>Tab_Circle!F10</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
@@ -1274,14 +1274,14 @@
       </c>
       <c r="I18">
         <f>Tab_Circle!E11</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
       </c>
       <c r="K18">
         <f>Tab_Circle!F11</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
         <v>18</v>
@@ -1328,14 +1328,14 @@
       </c>
       <c r="I19">
         <f>Tab_Circle!E12</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
       </c>
       <c r="K19">
         <f>Tab_Circle!F12</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
         <v>18</v>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I20">
         <f>Tab_Circle!E13</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
